--- a/out/production/QuestInput/sample/CustomerFiles/Excel/DesignQuestPackingListTemplate.xlsx
+++ b/out/production/QuestInput/sample/CustomerFiles/Excel/DesignQuestPackingListTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Packing Slip" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +225,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,13 +281,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -320,6 +337,30 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,35 +404,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -767,7 +796,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -781,43 +810,43 @@
   <sheetData>
     <row r="1" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="2"/>
       <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="4">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>42918</v>
+        <v>43080</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="6"/>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -828,339 +857,339 @@
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="36"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="38"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
@@ -1171,12 +1200,12 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1193,10 +1222,10 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A16:B16"/>
